--- a/data/trans_dic/P20B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20B-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.07655826438113954</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1039633550271337</v>
+        <v>0.1039633550271336</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2380132703605431</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1446130649909392</v>
+        <v>0.147072364412618</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09607627799756267</v>
+        <v>0.100309777482827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1847699690940727</v>
+        <v>0.186468708028361</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2726254873869681</v>
+        <v>0.2775823756479684</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04661255041478282</v>
+        <v>0.04669525362760308</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1046622363070511</v>
+        <v>0.1280158772884623</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03930198262519216</v>
+        <v>0.03901650266927658</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1240954515861352</v>
+        <v>0.1374363435671587</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1581918590227004</v>
+        <v>0.1603542475519681</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1080267233313409</v>
+        <v>0.1204600912238358</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1716662189359147</v>
+        <v>0.166023787073606</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5387890674550844</v>
+        <v>0.5495039352798085</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5316295700150453</v>
+        <v>0.5499952706665618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5783763990324096</v>
+        <v>0.5799516574986464</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5947175761985071</v>
+        <v>0.6220975504568633</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.356340835725233</v>
+        <v>0.3609357778901797</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4547334901943055</v>
+        <v>0.4711174123394948</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2342078891730975</v>
+        <v>0.2669285065932762</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2011337446486852</v>
+        <v>0.2151996521021997</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3842252214595184</v>
+        <v>0.3997887083561968</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4182119396334558</v>
+        <v>0.4295180279144185</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3297719221417724</v>
+        <v>0.3367503776014972</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3755301255500679</v>
+        <v>0.3782676247000052</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.05244857989103208</v>
+        <v>0.05387350006303308</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04771519301396464</v>
+        <v>0.04602554522100274</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1692702475751165</v>
+        <v>0.156965693453753</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03451370199570401</v>
+        <v>0.03378906945563267</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0350013983050886</v>
+        <v>0.03459051904679053</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1072878687962313</v>
+        <v>0.115869648138801</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1692809493510142</v>
+        <v>0.1669763020707976</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07004642920522579</v>
+        <v>0.06445548684800166</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.0432965077600716</v>
+        <v>0.0449593972117434</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1195123847941268</v>
+        <v>0.1275165218105593</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1961539457894205</v>
+        <v>0.2094197428013349</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4323117748046297</v>
+        <v>0.4517028465136086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3101889057195742</v>
+        <v>0.3416272126306224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4089084966245313</v>
+        <v>0.4226133286379599</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.540957236025208</v>
+        <v>0.5324783475065525</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3270855780887587</v>
+        <v>0.3006539861608001</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3027807945744276</v>
+        <v>0.2943754287983846</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.458126965345339</v>
+        <v>0.4436169449562619</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4593395005509925</v>
+        <v>0.4647061879226837</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2778095945337825</v>
+        <v>0.291120812560618</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.241974000962955</v>
+        <v>0.2397142643879582</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.382326861567732</v>
+        <v>0.3741465888273556</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4331659025408592</v>
+        <v>0.4307104114173586</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.3406827510609323</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4781370349142367</v>
+        <v>0.4781370349142365</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.169426567708361</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.190666405194295</v>
+        <v>0.1873643576294848</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1834007143236012</v>
+        <v>0.1816094137266175</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1825022867616854</v>
+        <v>0.187547651148755</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3261763642222625</v>
+        <v>0.3021983187096211</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0495338166433314</v>
+        <v>0.04392572135907783</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1288284399935473</v>
+        <v>0.1010045124003243</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1946888932747603</v>
+        <v>0.1452771772291603</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1031030440581673</v>
+        <v>0.09138296594560238</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1489278169117178</v>
+        <v>0.1544223774729791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1926846057691908</v>
+        <v>0.1928111780909111</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2403562217439027</v>
+        <v>0.2223746767726406</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2779911249692566</v>
+        <v>0.2619641764463426</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6140218759290217</v>
+        <v>0.6111804788465283</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4543502588016671</v>
+        <v>0.4679497327326314</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5267107305671505</v>
+        <v>0.52650769005817</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6540009455473647</v>
+        <v>0.6421640200637994</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.432831890720188</v>
+        <v>0.3964232397424546</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5024054961963649</v>
+        <v>0.5086245907281457</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7182117762733174</v>
+        <v>0.7000280378227057</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4662604124952529</v>
+        <v>0.4743562184039468</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4374280371774411</v>
+        <v>0.4360284764412408</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4130894493132194</v>
+        <v>0.420867236813815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5280065586998434</v>
+        <v>0.5178153858127937</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5360698875480736</v>
+        <v>0.5273975559941825</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3989960101279638</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.229199859427328</v>
+        <v>0.2291998594273279</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1904642474163241</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.119809568567962</v>
+        <v>0.1253735499136751</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2004992207567493</v>
+        <v>0.2041972418024435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2706580686513129</v>
+        <v>0.27061618915452</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1432125818787699</v>
+        <v>0.1401908673120617</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1092246046530112</v>
+        <v>0.105258085887287</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1126833247816137</v>
+        <v>0.1078581631864801</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1121135631725215</v>
+        <v>0.1176840158930038</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.100226435476786</v>
+        <v>0.1034871949897346</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1410057171153182</v>
+        <v>0.1391626259340038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1829276887089177</v>
+        <v>0.1813741577667592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2055130846447843</v>
+        <v>0.1971290768884207</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1465797040812384</v>
+        <v>0.1425845300130542</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3315451602242246</v>
+        <v>0.3381123088234011</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4350763005800479</v>
+        <v>0.4354719861397261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5546418597164255</v>
+        <v>0.5485656048209397</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3530930428607295</v>
+        <v>0.3477695628714157</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2961846694468607</v>
+        <v>0.3040948424251667</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.291726192169439</v>
+        <v>0.2858616482739009</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3028658177693597</v>
+        <v>0.3050598456467374</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2714770877432165</v>
+        <v>0.2719827444325744</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2891860651770188</v>
+        <v>0.2777567718899052</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.338680187340143</v>
+        <v>0.3330729520235041</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.361864195942089</v>
+        <v>0.3685398240598833</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.279459234283455</v>
+        <v>0.2825775403265322</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.4022658844261285</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3319846789817471</v>
+        <v>0.3319846789817472</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2386508554331581</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1151763485572637</v>
+        <v>0.1078878718131481</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2135406466137601</v>
+        <v>0.2141215350582533</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1717065181119077</v>
+        <v>0.1911585705539017</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1911553382622733</v>
+        <v>0.1848370897741725</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1111842360391834</v>
+        <v>0.1142911265508916</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2441675594630491</v>
+        <v>0.2583273264922634</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2578591541776011</v>
+        <v>0.2679755449819675</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2223171760156935</v>
+        <v>0.2198250601500425</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1340535676857178</v>
+        <v>0.1419543887504656</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2612888648297507</v>
+        <v>0.2654003246954931</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2641698390438985</v>
+        <v>0.2888040511106401</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2337922250236824</v>
+        <v>0.2466563124527715</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5567696406752289</v>
+        <v>0.5562087556781052</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5470883247670817</v>
+        <v>0.5318711112575111</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.601968053801089</v>
+        <v>0.6023830604220605</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4527946396148378</v>
+        <v>0.4676270080893656</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3572347147327887</v>
+        <v>0.3772776521164023</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4717817991159309</v>
+        <v>0.4612670669761288</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.546150596401628</v>
+        <v>0.5492364578111623</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.457355638683197</v>
+        <v>0.445034613668495</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3624091412754929</v>
+        <v>0.3710765141412254</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4502313730596379</v>
+        <v>0.4464016723573365</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.5036422966649885</v>
+        <v>0.5116881536000734</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4160592695745647</v>
+        <v>0.4198527343397482</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1205345061833258</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1219839873583369</v>
+        <v>0.1219839873583368</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2454038363189424</v>
@@ -1365,7 +1365,7 @@
         <v>0.2190042652170192</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2462702504689579</v>
+        <v>0.246270250468958</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2453312992023996</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1181093291174832</v>
+        <v>0.1204736188685139</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
@@ -1400,28 +1400,28 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1612235493438369</v>
+        <v>0.1627821729888013</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1519534243228831</v>
+        <v>0.1413130861891718</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1174538024075762</v>
+        <v>0.1180669758215991</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1354253079006054</v>
+        <v>0.13695008275207</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1692768782783822</v>
+        <v>0.1605253768623386</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1664714318542317</v>
+        <v>0.1665297402366916</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.119195237886471</v>
+        <v>0.1169272304486684</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1331604466256377</v>
+        <v>0.1278170683183625</v>
       </c>
     </row>
     <row r="21">
@@ -1435,37 +1435,37 @@
         <v>1</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7601011058074406</v>
+        <v>0.7597760615693809</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4853039177444624</v>
+        <v>0.5645936404233063</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7468298073023176</v>
+        <v>0.9771024082036415</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3576519526711993</v>
+        <v>0.3519083156696277</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3484468525275868</v>
+        <v>0.328948529273373</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3409203687901893</v>
+        <v>0.3425133238450132</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4770942872395968</v>
+        <v>0.4476259136172059</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3450375159613092</v>
+        <v>0.3427871125626387</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3589943030376438</v>
+        <v>0.3516762617592111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3113959232335304</v>
+        <v>0.3240943655473543</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.433296381426842</v>
+        <v>0.4236895885624093</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3369781723023659</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.3336994645254612</v>
+        <v>0.3336994645254611</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.2019519654144937</v>
@@ -1513,7 +1513,7 @@
         <v>0.2786938489210258</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2786271721767116</v>
+        <v>0.2786271721767117</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1830524697558018</v>
+        <v>0.18977884689868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2394729495436184</v>
+        <v>0.2379732798146698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2624940483578942</v>
+        <v>0.264902479549987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2647722476231597</v>
+        <v>0.2709791244189224</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1572661301764162</v>
+        <v>0.1556056068906921</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2007713166570756</v>
+        <v>0.2007303761646843</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1921303480164307</v>
+        <v>0.1932809052918325</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1807758501797577</v>
+        <v>0.1868668960598853</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1815077311453312</v>
+        <v>0.1805203362427505</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2320781107462306</v>
+        <v>0.2273922281658733</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2350172219506103</v>
+        <v>0.2354083753650303</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2366873168325379</v>
+        <v>0.2385126399581943</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3389237593735156</v>
+        <v>0.3392457584281728</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3643225392240828</v>
+        <v>0.3642014275223023</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4081006630758622</v>
+        <v>0.4183779958695406</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4052119248047779</v>
+        <v>0.405109617880886</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2540611946219508</v>
+        <v>0.2576700904987361</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2973712842092169</v>
+        <v>0.2948728742931651</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3038407881599366</v>
+        <v>0.3016669912027148</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2829046132932203</v>
+        <v>0.2866639145316762</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2627774922395265</v>
+        <v>0.2650107077365864</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3093772435876291</v>
+        <v>0.3085912882524204</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3232685664287526</v>
+        <v>0.3264660617577071</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3230070694173224</v>
+        <v>0.3251657197417513</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3426</v>
+        <v>3484</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2036</v>
+        <v>2125</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4843</v>
+        <v>4888</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>8927</v>
+        <v>9089</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3423</v>
+        <v>4187</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1429</v>
+        <v>1418</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>5314</v>
+        <v>5886</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8526</v>
+        <v>8642</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6334</v>
+        <v>7063</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>11862</v>
+        <v>11472</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12765</v>
+        <v>13019</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>11264</v>
+        <v>11653</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15160</v>
+        <v>15202</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19473</v>
+        <v>20370</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6818</v>
+        <v>6906</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>14873</v>
+        <v>15409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7593</v>
+        <v>8654</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7312</v>
+        <v>7823</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>16454</v>
+        <v>17121</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>22539</v>
+        <v>23148</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>19335</v>
+        <v>19744</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>25948</v>
+        <v>26137</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>802</v>
+        <v>824</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>980</v>
+        <v>945</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3972</v>
+        <v>3684</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3577</v>
+        <v>3863</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5623</v>
+        <v>5546</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3125</v>
+        <v>2876</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2174</v>
+        <v>2258</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>6438</v>
+        <v>6870</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>11119</v>
+        <v>11871</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6614</v>
+        <v>6911</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5242</v>
+        <v>5773</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8397</v>
+        <v>8678</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12695</v>
+        <v>12496</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9589</v>
+        <v>8814</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10088</v>
+        <v>9808</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>15273</v>
+        <v>14790</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15257</v>
+        <v>15436</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12394</v>
+        <v>12988</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12151</v>
+        <v>12037</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>20597</v>
+        <v>20156</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24553</v>
+        <v>24414</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3784</v>
+        <v>3719</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8811</v>
+        <v>8725</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5824</v>
+        <v>5985</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12046</v>
+        <v>11161</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>820</v>
+        <v>727</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2954</v>
+        <v>2316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3114</v>
+        <v>2323</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1892</v>
+        <v>1677</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5420</v>
+        <v>5620</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>13676</v>
+        <v>13685</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>11514</v>
+        <v>10652</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>15369</v>
+        <v>14483</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12186</v>
+        <v>12130</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21827</v>
+        <v>22481</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>16807</v>
+        <v>16801</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>24154</v>
+        <v>23716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7163</v>
+        <v>6560</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>11522</v>
+        <v>11664</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11486</v>
+        <v>11196</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8557</v>
+        <v>8705</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>15921</v>
+        <v>15870</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>29319</v>
+        <v>29871</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25293</v>
+        <v>24805</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>29637</v>
+        <v>29157</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6754</v>
+        <v>7067</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14767</v>
+        <v>15040</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14328</v>
+        <v>14326</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>9019</v>
+        <v>8829</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>6778</v>
+        <v>6532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8949</v>
+        <v>8565</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8389</v>
+        <v>8805</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5992</v>
+        <v>6187</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>16699</v>
+        <v>16481</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28000</v>
+        <v>27762</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>26256</v>
+        <v>25185</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>17995</v>
+        <v>17505</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18689</v>
+        <v>19059</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32044</v>
+        <v>32073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>29361</v>
+        <v>29039</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22237</v>
+        <v>21902</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18381</v>
+        <v>18872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>23167</v>
+        <v>22701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22661</v>
+        <v>22825</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16231</v>
+        <v>16262</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>34248</v>
+        <v>32895</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>51840</v>
+        <v>50982</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>46232</v>
+        <v>47085</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34308</v>
+        <v>34691</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1745</v>
+        <v>1635</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>8135</v>
+        <v>8157</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3753</v>
+        <v>4178</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>8430</v>
+        <v>8151</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4554</v>
+        <v>4681</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19299</v>
+        <v>20418</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>12046</v>
+        <v>12519</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>10403</v>
+        <v>10287</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>7522</v>
+        <v>7965</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>30607</v>
+        <v>31088</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>18115</v>
+        <v>19804</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21251</v>
+        <v>22420</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8438</v>
+        <v>8429</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20842</v>
+        <v>20263</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>13158</v>
+        <v>13167</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>19968</v>
+        <v>20622</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>14631</v>
+        <v>15451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>37290</v>
+        <v>36459</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25515</v>
+        <v>25659</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21402</v>
+        <v>20825</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>20335</v>
+        <v>20821</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>52739</v>
+        <v>52290</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34537</v>
+        <v>35089</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>37818</v>
+        <v>38163</v>
       </c>
     </row>
     <row r="24">
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
@@ -2786,28 +2786,28 @@
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>12955</v>
+        <v>13080</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>12911</v>
+        <v>12007</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7780</v>
+        <v>7821</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5944</v>
+        <v>6011</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>14215</v>
+        <v>13480</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15457</v>
+        <v>15462</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>8971</v>
+        <v>8801</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>6398</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="27">
@@ -2821,37 +2821,37 @@
         <v>3619</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5989</v>
+        <v>5986</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4380</v>
+        <v>5096</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>3107</v>
+        <v>4065</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>28739</v>
+        <v>28277</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29607</v>
+        <v>27950</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22582</v>
+        <v>22688</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20940</v>
+        <v>19647</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>28974</v>
+        <v>28785</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>33332</v>
+        <v>32652</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>23438</v>
+        <v>24393</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20820</v>
+        <v>20359</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>24526</v>
+        <v>25427</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>49273</v>
+        <v>48964</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42649</v>
+        <v>43041</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>54115</v>
+        <v>55383</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>39060</v>
+        <v>38647</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>66732</v>
+        <v>66719</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>51785</v>
+        <v>52095</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>43096</v>
+        <v>44548</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>69399</v>
+        <v>69022</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>124889</v>
+        <v>122367</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>101529</v>
+        <v>101698</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>104800</v>
+        <v>105608</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>45410</v>
+        <v>45453</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>74961</v>
+        <v>74936</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>66307</v>
+        <v>67977</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>82818</v>
+        <v>82797</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>63100</v>
+        <v>63997</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98840</v>
+        <v>98010</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>81895</v>
+        <v>81309</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>67443</v>
+        <v>68340</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>100473</v>
+        <v>101327</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>166486</v>
+        <v>166063</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>139655</v>
+        <v>141036</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>143020</v>
+        <v>143976</v>
       </c>
     </row>
     <row r="32">
